--- a/stock_historical_data/3mo/CHEMPLASTS.NS.xlsx
+++ b/stock_historical_data/3mo/CHEMPLASTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1098,12 +1133,15 @@
         <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,6 +1197,113 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B14" t="n">
+        <v>556.3499755859375</v>
+      </c>
+      <c r="C14" t="n">
+        <v>602.3499755859375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>432.3500061035156</v>
+      </c>
+      <c r="E14" t="n">
+        <v>479</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>21791603</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>31</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B15" t="n">
+        <v>486</v>
+      </c>
+      <c r="C15" t="n">
+        <v>530</v>
+      </c>
+      <c r="D15" t="n">
+        <v>463.3500061035156</v>
+      </c>
+      <c r="E15" t="n">
+        <v>500.1499938964844</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>9650753</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>44</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
